--- a/BackTest/2019-10-27 BackTest PLY.xlsx
+++ b/BackTest/2019-10-27 BackTest PLY.xlsx
@@ -7206,13 +7206,17 @@
         <v>3.956666666666668</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3.96</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
@@ -7241,14 +7245,22 @@
         <v>3.960000000000002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7276,14 +7288,22 @@
         <v>3.960000000000002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7311,13 +7331,17 @@
         <v>3.960000000000002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3.96</v>
+      </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
@@ -7346,14 +7370,22 @@
         <v>3.960000000000002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K199" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +7413,22 @@
         <v>3.953333333333335</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7416,14 +7456,22 @@
         <v>3.953333333333335</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +7499,22 @@
         <v>3.950000000000002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K202" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7542,22 @@
         <v>3.956666666666669</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K203" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +7585,22 @@
         <v>3.956666666666668</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7634,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7675,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7757,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7839,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +7880,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +7962,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8003,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8085,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +8126,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8011,18 +8161,20 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L218" t="inlineStr"/>
+        <v>3.96</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8050,20 +8202,18 @@
         <v>3.946666666666669</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -8093,16 +8243,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8136,16 +8284,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8179,16 +8325,14 @@
         <v>3.95666666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8222,16 +8366,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8265,16 +8407,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>3.94</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8308,16 +8448,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8351,16 +8489,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8394,16 +8530,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8437,16 +8571,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8480,16 +8612,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8523,16 +8653,14 @@
         <v>3.960000000000004</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>3.94</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8566,16 +8694,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>3.94</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8609,16 +8735,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8652,16 +8776,14 @@
         <v>3.946666666666669</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -8695,16 +8817,14 @@
         <v>3.953333333333336</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -8738,16 +8858,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8781,16 +8899,14 @@
         <v>3.956666666666671</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -8824,16 +8940,14 @@
         <v>3.956666666666671</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -8867,16 +8981,14 @@
         <v>3.960000000000004</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -8910,16 +9022,14 @@
         <v>3.956666666666671</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -8953,16 +9063,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -8996,16 +9104,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9039,16 +9145,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9082,16 +9186,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9125,16 +9227,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9168,16 +9268,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9211,16 +9309,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9254,16 +9350,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9297,16 +9391,14 @@
         <v>3.956666666666671</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>3.97</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9347,7 +9439,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9388,7 +9480,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9422,16 +9514,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9465,16 +9555,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9508,16 +9596,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9551,16 +9637,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9594,16 +9678,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9637,16 +9719,14 @@
         <v>3.956666666666671</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9680,16 +9760,14 @@
         <v>3.956666666666671</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>3.97</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9723,16 +9801,14 @@
         <v>3.956666666666671</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -9773,7 +9849,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -9807,16 +9883,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>3.94</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -9857,7 +9931,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -9898,7 +9972,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -9932,16 +10006,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -9975,16 +10047,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10018,16 +10088,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10061,16 +10129,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10104,16 +10170,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10147,16 +10211,14 @@
         <v>3.946666666666669</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>3.94</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10190,16 +10252,14 @@
         <v>3.950000000000003</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10233,16 +10293,14 @@
         <v>3.953333333333337</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10276,16 +10334,14 @@
         <v>3.960000000000004</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10319,16 +10375,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10362,16 +10416,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10405,16 +10457,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10448,16 +10498,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10491,16 +10539,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10534,16 +10580,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10577,16 +10621,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10620,16 +10662,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10663,16 +10703,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10706,16 +10744,14 @@
         <v>3.960000000000003</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10749,16 +10785,14 @@
         <v>3.963333333333337</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>3.97</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10792,16 +10826,14 @@
         <v>3.970000000000004</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>3.98</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10842,7 +10874,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10883,7 +10915,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10924,7 +10956,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -10965,7 +10997,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11006,7 +11038,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11047,7 +11079,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11088,7 +11120,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11129,7 +11161,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11170,7 +11202,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11211,7 +11243,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11248,19 +11280,19 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>1</v>
+        <v>1.017727272727273</v>
       </c>
     </row>
     <row r="295">
@@ -11289,17 +11321,11 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11333,14 +11359,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11371,19 +11391,13 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
-        <v>1.015253164556962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -11412,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
@@ -11447,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
@@ -11482,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
@@ -11517,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
@@ -11552,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
@@ -11587,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
@@ -11622,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
@@ -11657,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
@@ -11692,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest PLY.xlsx
+++ b/BackTest/2019-10-27 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-553920.8631999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-553920.8631999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-668523.1470999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-668523.1470999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-551636.3966999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-782421.2571999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-782421.2571999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-782421.2571999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-950006.5347999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-828815.6132999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-828815.6132999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-828815.6132999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-813998.2444</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-813998.2444</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-813998.2444</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-982767.8912</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1423071.271</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1573640.0084</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1573640.0084</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1459226.9298</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1635793.9217</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1533079.249</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1847636.8918</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1813541.8918</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1980565.0961</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2126710.7357</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1723000.9295</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1833313.5907</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1833313.5907</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1574530.138499999</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1789672.039499999</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1584152.155199999</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1743251.3267</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1538647.7835</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1844831.4036</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1645441.6665</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1830065.0642</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1982695.3205</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2141894.2067</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2101064.2067</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1572871.602</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2160915.4155</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2160915.4155</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2160915.4155</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -9361,426 +9361,380 @@
         <v>-2948328.561099999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F273" t="n">
+        <v>393265.3833</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-2555063.177799999</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F274" t="n">
+        <v>212917.2574</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-2555063.177799999</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F275" t="n">
+        <v>50632.9113</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-2605696.089099999</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E276" t="n">
         <v>3.94</v>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
+      <c r="F276" t="n">
+        <v>33517.2721</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-2605696.089099999</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F277" t="n">
+        <v>234465.883</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-2605696.089099999</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F278" t="n">
+        <v>310832</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-2916528.089099999</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F279" t="n">
+        <v>288443.7846</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-2628084.304499999</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D280" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E280" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F280" t="n">
+        <v>202764.7442</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-2830849.048699999</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E281" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F281" t="n">
+        <v>359834.6381</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-2471014.410599999</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D282" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E282" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F282" t="n">
+        <v>197264.4976</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-2668278.908199999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D283" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E283" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F283" t="n">
+        <v>234807.3849</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-2668278.908199999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C273" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D273" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E273" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F273" t="n">
-        <v>393265.3833</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-2555063.177799999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C274" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D274" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E274" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F274" t="n">
-        <v>212917.2574</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-2555063.177799999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F275" t="n">
-        <v>50632.9113</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-2605696.089099999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C276" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D276" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E276" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F276" t="n">
-        <v>33517.2721</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-2605696.089099999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F277" t="n">
-        <v>234465.883</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-2605696.089099999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C278" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D278" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E278" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F278" t="n">
-        <v>310832</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-2916528.089099999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D279" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E279" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F279" t="n">
-        <v>288443.7846</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-2628084.304499999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C280" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D280" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E280" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F280" t="n">
-        <v>202764.7442</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-2830849.048699999</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C281" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D281" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E281" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F281" t="n">
-        <v>359834.6381</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-2471014.410599999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C282" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D282" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E282" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F282" t="n">
-        <v>197264.4976</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-2668278.908199999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C283" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D283" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E283" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F283" t="n">
-        <v>234807.3849</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-2668278.908199999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9809,9 +9763,11 @@
         <v>-2544356.488299999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -9846,9 +9802,11 @@
         <v>-2847026.687099999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -9883,7 +9841,7 @@
         <v>-2887961.362499999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>3.95</v>
@@ -9922,7 +9880,7 @@
         <v>-2756303.412699999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>3.94</v>
@@ -9961,9 +9919,11 @@
         <v>-2756303.412699999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10035,9 +9995,11 @@
         <v>-2881907.823699999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10072,9 +10034,11 @@
         <v>-2411736.838599999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>3.94</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10109,9 +10073,11 @@
         <v>-2411736.838599999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10146,9 +10112,11 @@
         <v>-2006356.310399998</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10183,9 +10151,11 @@
         <v>-2273307.140599999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10220,9 +10190,11 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10257,9 +10229,11 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10294,9 +10268,11 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10331,9 +10307,11 @@
         <v>-2684336.922099999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10368,9 +10346,11 @@
         <v>-2684336.922099999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10405,7 +10385,7 @@
         <v>-2331139.784599999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>3.95</v>
@@ -10444,7 +10424,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>3.96</v>
@@ -10483,7 +10463,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>3.95</v>
@@ -10522,7 +10502,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>3.95</v>
@@ -10561,7 +10541,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>3.95</v>
@@ -10600,7 +10580,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>3.95</v>
@@ -10639,7 +10619,7 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>3.95</v>
@@ -10678,7 +10658,7 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>3.96</v>
@@ -10717,7 +10697,7 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>3.96</v>
@@ -10756,7 +10736,7 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>3.96</v>
@@ -10795,11 +10775,9 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -10834,7 +10812,7 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>3.95</v>
@@ -10873,11 +10851,9 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -10949,7 +10925,7 @@
         <v>-2369220.897199999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>3.96</v>
@@ -10988,9 +10964,11 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11025,7 +11003,7 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>3.96</v>
@@ -11175,9 +11153,11 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11212,7 +11192,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>3.95</v>
@@ -11251,7 +11231,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>3.95</v>
@@ -11290,7 +11270,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>3.95</v>
@@ -11329,7 +11309,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>3.95</v>
@@ -11368,7 +11348,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>3.95</v>
@@ -11407,7 +11387,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>3.95</v>
@@ -11446,7 +11426,7 @@
         <v>-2400374.530399999</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>3.95</v>
@@ -11485,7 +11465,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>3.94</v>
@@ -11524,7 +11504,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>3.96</v>
@@ -11563,7 +11543,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>3.96</v>
@@ -11602,7 +11582,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>3.96</v>
@@ -11641,7 +11621,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>3.96</v>
@@ -11680,7 +11660,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>3.96</v>
@@ -11719,7 +11699,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>3.96</v>
@@ -11758,7 +11738,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>3.96</v>
@@ -11797,7 +11777,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>3.96</v>
@@ -11836,7 +11816,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>3.96</v>
@@ -11875,9 +11855,11 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -11912,11 +11894,9 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -11951,11 +11931,9 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -12804,16 +12782,18 @@
         <v>-1264648.043399999</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
       <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
@@ -12843,7 +12823,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12876,7 +12860,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12909,7 +12897,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12942,7 +12934,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12975,7 +12971,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13008,7 +13008,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13041,7 +13045,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13074,7 +13082,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13103,11 +13115,15 @@
         <v>-2116778.738499999</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13140,7 +13156,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13173,7 +13193,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13206,7 +13230,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13235,11 +13263,15 @@
         <v>-2356752.541199999</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13272,7 +13304,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13301,11 +13337,15 @@
         <v>-1792597.491499999</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13338,7 +13378,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13367,11 +13411,15 @@
         <v>-1814601.536899999</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13400,14 +13448,16 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
@@ -13433,7 +13483,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13466,7 +13516,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13499,7 +13549,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13532,7 +13582,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13664,7 +13714,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13697,7 +13747,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13730,7 +13780,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13763,7 +13813,7 @@
         <v>-2948669.496399999</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -19901,7 +19951,7 @@
         <v>-1987651.62208511</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19934,7 +19984,7 @@
         <v>-1987651.62208511</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20198,7 +20248,7 @@
         <v>-1987651.62208511</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20297,7 +20347,7 @@
         <v>-1782937.05948511</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20330,7 +20380,7 @@
         <v>-1782887.05948511</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20363,7 +20413,7 @@
         <v>-1782887.05948511</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20396,7 +20446,7 @@
         <v>-2107912.24018511</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20429,7 +20479,7 @@
         <v>-2150011.24018511</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20462,7 +20512,7 @@
         <v>-2528565.57038511</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20528,7 +20578,7 @@
         <v>-2528555.57038511</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20660,7 +20710,7 @@
         <v>-3769072.34848511</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20693,7 +20743,7 @@
         <v>-3271377.02958511</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20726,7 +20776,7 @@
         <v>-3483467.68128511</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20792,7 +20842,7 @@
         <v>-3483467.68128511</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20825,7 +20875,7 @@
         <v>-3499513.851385111</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22816,6 +22866,6 @@
       <c r="M666" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PLY.xlsx
+++ b/BackTest/2019-10-27 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-553920.8631999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-553920.8631999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-473946.5415999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-668523.1470999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-668523.1470999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-551636.3966999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-782421.2571999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-782421.2571999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-782421.2571999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-950006.5347999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-828815.6132999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-828815.6132999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-828815.6132999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-813998.2444</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-813998.2444</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-813998.2444</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-982767.8912</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1256489.9231</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1423071.271</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1573640.0084</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1573640.0084</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1743251.3267</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1538647.7835</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1844831.4036</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1645441.6665</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1830065.0642</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1982695.3205</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2141894.2067</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2101064.2067</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6754,10 +6754,14 @@
         <v>-2710186.7368</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.99</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
@@ -6790,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +6833,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8734,10 +8750,14 @@
         <v>-2253494.954399999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J253" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8770,8 +8790,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +8829,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9064,10 +9096,14 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J263" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9097,11 +9133,19 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J264" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9174,19 @@
         <v>-2674203.775099999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J265" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9215,19 @@
         <v>-2439516.210399999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9256,19 @@
         <v>-2598937.385399999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J267" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9297,19 @@
         <v>-2129638.543399999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J268" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9338,19 @@
         <v>-2625624.973099999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J269" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9382,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9418,19 @@
         <v>-2948328.561099999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9459,19 @@
         <v>-2948328.561099999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9500,19 @@
         <v>-2555063.177799999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9544,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9583,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9622,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9658,19 @@
         <v>-2605696.089099999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J277" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9702,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9741,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +9780,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9816,19 @@
         <v>-2471014.410599999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J281" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9860,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9729,10 +9901,12 @@
       <c r="I283" t="n">
         <v>3.95</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L283" t="n">
@@ -9768,7 +9942,9 @@
       <c r="I284" t="n">
         <v>3.95</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,7 +9983,9 @@
       <c r="I285" t="n">
         <v>3.96</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,7 +10024,9 @@
       <c r="I286" t="n">
         <v>3.95</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,7 +10065,9 @@
       <c r="I287" t="n">
         <v>3.94</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9924,7 +10106,9 @@
       <c r="I288" t="n">
         <v>3.96</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9961,7 +10145,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,12 +10181,12 @@
         <v>-2881907.823699999</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10039,7 +10225,9 @@
       <c r="I291" t="n">
         <v>3.94</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10073,12 +10261,12 @@
         <v>-2411736.838599999</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10112,12 +10300,12 @@
         <v>-2006356.310399998</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10151,12 +10339,12 @@
         <v>-2273307.140599999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10195,7 +10383,9 @@
       <c r="I295" t="n">
         <v>3.95</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10229,12 +10419,12 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10268,12 +10458,12 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,12 +10497,12 @@
         <v>-2684336.922099999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10346,12 +10536,12 @@
         <v>-2684336.922099999</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10385,12 +10575,12 @@
         <v>-2331139.784599999</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10424,12 +10614,12 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10463,12 +10653,12 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10502,12 +10692,12 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10541,12 +10731,12 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10580,12 +10770,12 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10619,12 +10809,12 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,12 +10848,12 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10697,12 +10887,12 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10736,12 +10926,12 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10778,7 +10968,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10812,12 +11004,12 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10854,7 +11046,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10891,7 +11085,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,12 +11121,12 @@
         <v>-2369220.897199999</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,12 +11160,12 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,12 +11199,12 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11045,7 +11241,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11082,7 +11280,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,7 +11319,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11153,12 +11355,12 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11192,12 +11394,12 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11231,12 +11433,12 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11270,12 +11472,12 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11309,12 +11511,12 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11348,12 +11550,12 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11387,12 +11589,12 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11426,12 +11628,12 @@
         <v>-2400374.530399999</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,7 +11672,9 @@
       <c r="I328" t="n">
         <v>3.94</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11504,12 +11708,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11543,12 +11747,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11582,12 +11786,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11621,12 +11825,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11660,12 +11864,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11699,12 +11903,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11738,12 +11942,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11777,12 +11981,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11816,12 +12020,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11855,12 +12059,12 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11897,7 +12101,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11934,7 +12140,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11971,7 +12179,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12008,7 +12218,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,7 +12257,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12082,7 +12296,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12119,7 +12335,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12156,7 +12374,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12193,7 +12413,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12230,7 +12452,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12267,7 +12491,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12304,7 +12530,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12341,7 +12569,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,17 +12605,19 @@
         <v>-1163866.477999999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L352" t="n">
-        <v>1</v>
+        <v>1.017727272727273</v>
       </c>
       <c r="M352" t="inlineStr"/>
     </row>
@@ -12412,15 +12644,11 @@
         <v>-1163866.477999999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12449,15 +12677,11 @@
         <v>-1245204.514499999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12486,15 +12710,11 @@
         <v>-1545456.331099999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12523,15 +12743,11 @@
         <v>-1545456.331099999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12560,15 +12776,11 @@
         <v>-1463081.626699999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12597,15 +12809,11 @@
         <v>-1463081.626699999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12638,11 +12846,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12671,15 +12875,11 @@
         <v>-1285314.242799999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12712,11 +12912,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12749,11 +12945,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12786,11 +12978,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12823,11 +13011,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12856,15 +13040,11 @@
         <v>-1004484.245999999</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12897,11 +13077,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12930,15 +13106,11 @@
         <v>-1584710.940399999</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12971,11 +13143,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13008,11 +13176,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +13209,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13078,15 +13238,11 @@
         <v>-1913804.115899999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +13275,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13308,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +13341,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13226,15 +13370,11 @@
         <v>-1918866.307599999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13263,15 +13403,11 @@
         <v>-2356752.541199999</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13300,15 +13436,11 @@
         <v>-2368269.733699999</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13337,15 +13469,11 @@
         <v>-1792597.491499999</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13374,15 +13502,11 @@
         <v>-1989361.064399999</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13411,15 +13535,11 @@
         <v>-1814601.536899999</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13448,16 +13568,14 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
       <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
@@ -13483,7 +13601,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13516,7 +13634,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13615,7 +13733,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13648,7 +13766,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13681,7 +13799,7 @@
         <v>-2594079.060399999</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13714,7 +13832,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13747,7 +13865,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14473,10 +14591,14 @@
         <v>-3041176.7843</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J412" t="n">
+        <v>3.96</v>
+      </c>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
@@ -14509,8 +14631,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14542,8 +14670,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -22866,6 +23000,6 @@
       <c r="M666" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PLY.xlsx
+++ b/BackTest/2019-10-27 BackTest PLY.xlsx
@@ -6754,14 +6754,10 @@
         <v>-2710186.7368</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
@@ -6794,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6833,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8750,14 +8734,10 @@
         <v>-2253494.954399999</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J253" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8790,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8829,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9096,14 +9064,10 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J263" t="n">
-        <v>3.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9133,1026 +9097,852 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J264" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K264" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E265" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F265" t="n">
+        <v>339034.7978</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-2674203.775099999</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F266" t="n">
+        <v>234687.5647</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-2439516.210399999</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F267" t="n">
+        <v>159421.175</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-2598937.385399999</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F268" t="n">
+        <v>469298.842</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-2129638.543399999</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E269" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F269" t="n">
+        <v>495986.4297</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-2625624.973099999</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E270" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F270" t="n">
+        <v>218070.4394</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-2625624.973099999</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F271" t="n">
+        <v>322703.588</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-2948328.561099999</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D272" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F272" t="n">
+        <v>487700.1367</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-2948328.561099999</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F273" t="n">
+        <v>393265.3833</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-2555063.177799999</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F274" t="n">
+        <v>212917.2574</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-2555063.177799999</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F275" t="n">
+        <v>50632.9113</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-2605696.089099999</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E276" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F276" t="n">
+        <v>33517.2721</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-2605696.089099999</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F277" t="n">
+        <v>234465.883</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-2605696.089099999</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F278" t="n">
+        <v>310832</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-2916528.089099999</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F279" t="n">
+        <v>288443.7846</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-2628084.304499999</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D280" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E280" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F280" t="n">
+        <v>202764.7442</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-2830849.048699999</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E281" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F281" t="n">
+        <v>359834.6381</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-2471014.410599999</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D282" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E282" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F282" t="n">
+        <v>197264.4976</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-2668278.908199999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D283" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E283" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F283" t="n">
+        <v>234807.3849</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-2668278.908199999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D284" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E284" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F284" t="n">
+        <v>123922.4199</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-2544356.488299999</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E285" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F285" t="n">
+        <v>302670.1988</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-2847026.687099999</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D286" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E286" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F286" t="n">
+        <v>40934.6754</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-2887961.362499999</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D287" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E287" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F287" t="n">
+        <v>131657.9498</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-2756303.412699999</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J287" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D288" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E288" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F288" t="n">
+        <v>360598.5778</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-2756303.412699999</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C265" t="n">
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
         <v>3.94</v>
       </c>
-      <c r="D265" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E265" t="n">
+      <c r="C289" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E289" t="n">
         <v>3.94</v>
       </c>
-      <c r="F265" t="n">
-        <v>339034.7978</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-2674203.775099999</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J265" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K265" t="inlineStr">
+      <c r="F289" t="n">
+        <v>247357.8517</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-2756303.412699999</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D266" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E266" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F266" t="n">
-        <v>234687.5647</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-2439516.210399999</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J266" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C267" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D267" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E267" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F267" t="n">
-        <v>159421.175</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-2598937.385399999</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J267" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C268" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D268" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E268" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F268" t="n">
-        <v>469298.842</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-2129638.543399999</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J268" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C269" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D269" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E269" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F269" t="n">
-        <v>495986.4297</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-2625624.973099999</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J269" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C270" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D270" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E270" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F270" t="n">
-        <v>218070.4394</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-2625624.973099999</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C271" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D271" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E271" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F271" t="n">
-        <v>322703.588</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-2948328.561099999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J271" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C272" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D272" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E272" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F272" t="n">
-        <v>487700.1367</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-2948328.561099999</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J272" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C273" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D273" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E273" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F273" t="n">
-        <v>393265.3833</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-2555063.177799999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J273" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C274" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D274" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E274" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F274" t="n">
-        <v>212917.2574</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-2555063.177799999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E275" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F275" t="n">
-        <v>50632.9113</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-2605696.089099999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C276" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D276" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E276" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F276" t="n">
-        <v>33517.2721</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-2605696.089099999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F277" t="n">
-        <v>234465.883</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-2605696.089099999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J277" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C278" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D278" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E278" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F278" t="n">
-        <v>310832</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-2916528.089099999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D279" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E279" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F279" t="n">
-        <v>288443.7846</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-2628084.304499999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C280" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D280" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E280" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F280" t="n">
-        <v>202764.7442</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-2830849.048699999</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C281" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D281" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E281" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F281" t="n">
-        <v>359834.6381</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-2471014.410599999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J281" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C282" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D282" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E282" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F282" t="n">
-        <v>197264.4976</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-2668278.908199999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C283" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D283" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E283" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F283" t="n">
-        <v>234807.3849</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-2668278.908199999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J283" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C284" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D284" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E284" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F284" t="n">
-        <v>123922.4199</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-2544356.488299999</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J284" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C285" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D285" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E285" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F285" t="n">
-        <v>302670.1988</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-2847026.687099999</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J285" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C286" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D286" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E286" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F286" t="n">
-        <v>40934.6754</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-2887961.362499999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J286" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C287" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D287" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E287" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F287" t="n">
-        <v>131657.9498</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-2756303.412699999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J287" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C288" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D288" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E288" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F288" t="n">
-        <v>360598.5778</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-2756303.412699999</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J288" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C289" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D289" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E289" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F289" t="n">
-        <v>247357.8517</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-2756303.412699999</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10185,7 +9975,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10226,7 +10016,7 @@
         <v>3.94</v>
       </c>
       <c r="J291" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10261,11 +10051,13 @@
         <v>-2411736.838599999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J292" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10300,11 +10092,13 @@
         <v>-2006356.310399998</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J293" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10343,7 +10137,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10384,7 +10178,7 @@
         <v>3.95</v>
       </c>
       <c r="J295" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10419,11 +10213,13 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J296" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10458,11 +10254,13 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J297" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10501,7 +10299,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10536,11 +10334,13 @@
         <v>-2684336.922099999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J299" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10579,7 +10379,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10618,7 +10418,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10653,11 +10453,13 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J302" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10692,11 +10494,13 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J303" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10731,11 +10535,13 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J304" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10770,11 +10576,13 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J305" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10809,11 +10617,13 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J306" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10848,11 +10658,13 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J307" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10887,11 +10699,13 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J308" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10926,11 +10740,13 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J309" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10969,7 +10785,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11004,11 +10820,13 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J311" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11043,11 +10861,13 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J312" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11082,11 +10902,13 @@
         <v>-2178019.209899999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J313" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11121,11 +10943,13 @@
         <v>-2369220.897199999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J314" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11160,11 +10984,13 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J315" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11199,11 +11025,13 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J316" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11242,7 +11070,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11277,11 +11105,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J318" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11316,11 +11146,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J319" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11355,11 +11187,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J320" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11394,11 +11228,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J321" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11433,11 +11269,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J322" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11472,11 +11310,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J323" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11511,11 +11351,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J324" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11550,11 +11392,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J325" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11589,11 +11433,13 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J326" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11628,11 +11474,13 @@
         <v>-2400374.530399999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J327" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11673,7 +11521,7 @@
         <v>3.94</v>
       </c>
       <c r="J328" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11708,11 +11556,13 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J329" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11747,11 +11597,13 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J330" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11786,11 +11638,13 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J331" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11825,11 +11679,13 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J332" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11864,11 +11720,13 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J333" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11907,7 +11765,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11946,7 +11804,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11981,11 +11839,13 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J336" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12024,7 +11884,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12063,7 +11923,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12102,7 +11962,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12137,11 +11997,13 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J340" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12180,7 +12042,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12219,7 +12081,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12258,7 +12120,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12297,7 +12159,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12336,7 +12198,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12375,7 +12237,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12414,7 +12276,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12453,7 +12315,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12492,7 +12354,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12531,7 +12393,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12570,7 +12432,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12605,679 +12467,799 @@
         <v>-1163866.477999999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C353" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D353" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E353" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F353" t="n">
+        <v>70028.9994</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-1163866.477999999</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C354" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D354" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E354" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F354" t="n">
+        <v>81338.0365</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-1245204.514499999</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C355" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D355" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E355" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F355" t="n">
+        <v>300251.8166</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-1545456.331099999</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C356" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D356" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E356" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F356" t="n">
+        <v>397266.6386</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-1545456.331099999</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D357" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E357" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F357" t="n">
+        <v>82374.7044</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-1463081.626699999</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C358" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D358" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E358" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F358" t="n">
+        <v>201239.2996</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-1463081.626699999</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C359" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D359" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E359" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F359" t="n">
+        <v>135984.2496</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-1327097.377099999</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C360" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D360" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E360" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F360" t="n">
+        <v>41783.1343</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-1285314.242799999</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C361" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D361" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E361" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F361" t="n">
+        <v>285002.0731</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-1570316.315899999</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C362" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D362" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E362" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F362" t="n">
+        <v>11607.4864</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-1581923.802299999</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C363" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D363" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E363" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F363" t="n">
+        <v>317275.7589</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-1264648.043399999</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C364" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D364" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E364" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F364" t="n">
+        <v>188149.1069</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-1264648.043399999</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D365" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E365" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F365" t="n">
+        <v>260163.7974</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-1004484.245999999</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C366" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D366" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E366" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F366" t="n">
+        <v>465822.7778</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-1470307.023799999</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C367" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D367" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E367" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F367" t="n">
+        <v>114403.9166</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-1584710.940399999</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C368" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D368" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E368" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F368" t="n">
+        <v>278845.9503</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-1584710.940399999</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C369" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D369" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E369" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F369" t="n">
+        <v>379689.1634</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-1964400.103799999</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C370" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D370" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E370" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F370" t="n">
+        <v>14585.2243</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-1949814.879499999</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C371" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D371" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E371" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F371" t="n">
+        <v>36010.7636</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-1913804.115899999</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C372" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D372" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E372" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F372" t="n">
+        <v>202974.6226</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-2116778.738499999</v>
+      </c>
+      <c r="H372" t="n">
+        <v>2</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L352" t="n">
-        <v>1.017727272727273</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C353" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D353" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E353" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F353" t="n">
-        <v>70028.9994</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-1163866.477999999</v>
-      </c>
-      <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C354" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D354" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E354" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F354" t="n">
-        <v>81338.0365</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-1245204.514499999</v>
-      </c>
-      <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C355" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D355" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E355" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F355" t="n">
-        <v>300251.8166</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-1545456.331099999</v>
-      </c>
-      <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C356" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D356" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E356" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F356" t="n">
-        <v>397266.6386</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-1545456.331099999</v>
-      </c>
-      <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C357" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D357" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E357" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F357" t="n">
-        <v>82374.7044</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-1463081.626699999</v>
-      </c>
-      <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C358" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D358" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E358" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F358" t="n">
-        <v>201239.2996</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-1463081.626699999</v>
-      </c>
-      <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C359" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D359" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E359" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F359" t="n">
-        <v>135984.2496</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-1327097.377099999</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C360" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D360" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E360" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F360" t="n">
-        <v>41783.1343</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-1285314.242799999</v>
-      </c>
-      <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C361" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D361" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E361" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F361" t="n">
-        <v>285002.0731</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-1570316.315899999</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C362" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D362" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E362" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F362" t="n">
-        <v>11607.4864</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-1581923.802299999</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C363" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D363" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E363" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F363" t="n">
-        <v>317275.7589</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-1264648.043399999</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C364" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D364" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E364" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F364" t="n">
-        <v>188149.1069</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-1264648.043399999</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C365" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D365" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E365" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F365" t="n">
-        <v>260163.7974</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-1004484.245999999</v>
-      </c>
-      <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C366" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D366" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E366" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F366" t="n">
-        <v>465822.7778</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-1470307.023799999</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C367" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D367" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E367" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F367" t="n">
-        <v>114403.9166</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-1584710.940399999</v>
-      </c>
-      <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C368" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D368" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E368" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F368" t="n">
-        <v>278845.9503</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-1584710.940399999</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C369" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D369" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E369" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F369" t="n">
-        <v>379689.1634</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-1964400.103799999</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C370" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D370" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E370" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F370" t="n">
-        <v>14585.2243</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-1949814.879499999</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C371" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D371" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E371" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F371" t="n">
-        <v>36010.7636</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-1913804.115899999</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C372" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D372" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E372" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F372" t="n">
-        <v>202974.6226</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-2116778.738499999</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
-        <v>1</v>
+        <v>1.020380710659899</v>
       </c>
       <c r="M372" t="inlineStr"/>
     </row>
@@ -13370,7 +13352,7 @@
         <v>-1918866.307599999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13403,7 +13385,7 @@
         <v>-2356752.541199999</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13436,7 +13418,7 @@
         <v>-2368269.733699999</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13469,7 +13451,7 @@
         <v>-1792597.491499999</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13502,7 +13484,7 @@
         <v>-1989361.064399999</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13535,7 +13517,7 @@
         <v>-1814601.536899999</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13568,7 +13550,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13601,7 +13583,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13634,7 +13616,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13733,7 +13715,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13766,7 +13748,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13799,7 +13781,7 @@
         <v>-2594079.060399999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13832,7 +13814,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13865,7 +13847,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14591,14 +14573,10 @@
         <v>-3041176.7843</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J412" t="n">
-        <v>3.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
@@ -14631,14 +14609,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14670,14 +14642,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
